--- a/JPADSandBox_v2/out/AGILE-NTP/PERFORMANCE/Performance.xlsx
+++ b/JPADSandBox_v2/out/AGILE-NTP/PERFORMANCE/Performance.xlsx
@@ -1039,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>718.9296269090661</v>
+        <v>717.2312769868654</v>
       </c>
     </row>
     <row r="3">
@@ -1050,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>120.56320393775744</v>
+        <v>118.6723281217312</v>
       </c>
     </row>
     <row r="4">
@@ -1061,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>240.46975067422824</v>
+        <v>240.97428308890318</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1079.9625815210516</v>
+        <v>1076.8778881974995</v>
       </c>
     </row>
     <row r="6">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1241.9569687492092</v>
+        <v>1238.4095714271243</v>
       </c>
     </row>
     <row r="7">
@@ -1094,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>1246.5665496006054</v>
+        <v>1171.2683803488596</v>
       </c>
     </row>
     <row r="8">
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2358.6930016701644</v>
+        <v>2353.120987489716</v>
       </c>
     </row>
     <row r="10">
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>395.54856934959787</v>
+        <v>389.3449085358635</v>
       </c>
     </row>
     <row r="11">
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>788.9427515558671</v>
+        <v>790.5980416302598</v>
       </c>
     </row>
     <row r="12">
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>3543.184322575629</v>
+        <v>3533.063937655839</v>
       </c>
     </row>
     <row r="13">
@@ -1154,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>4074.6619709619727</v>
+        <v>4063.023528304214</v>
       </c>
     </row>
     <row r="14">
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>4089.785267718522</v>
+        <v>3842.744030015944</v>
       </c>
     </row>
     <row r="15">
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>56.86550244108648</v>
+        <v>55.26423756844582</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>61.385804498135926</v>
+        <v>61.38915037495384</v>
       </c>
     </row>
     <row r="21">
@@ -1236,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>65.829062929412</v>
+        <v>65.88913393984545</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1263,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>110.53769372997371</v>
+        <v>107.42508382635259</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>119.32445798773723</v>
+        <v>119.33096185196212</v>
       </c>
     </row>
     <row r="28">
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>127.96146141786352</v>
+        <v>128.07823012064992</v>
       </c>
     </row>
     <row r="29">
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0362362362362079</v>
+        <v>1.0070570570570307</v>
       </c>
     </row>
     <row r="31">
@@ -1356,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>1.1186078075610286</v>
+        <v>1.1186687780730589</v>
       </c>
     </row>
     <row r="34">
@@ -1367,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1995754451585405</v>
+        <v>1.2006700940244843</v>
       </c>
     </row>
     <row r="35">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="n">
-        <v>29.238001113353725</v>
+        <v>29.1704252087605</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>11545.83532697062</v>
+        <v>11889.504475233283</v>
       </c>
     </row>
     <row r="3">
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>37880.0371619771</v>
+        <v>39007.560614282425</v>
       </c>
     </row>
     <row r="4">
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>11065.34924815075</v>
+        <v>11412.476582415668</v>
       </c>
     </row>
     <row r="5">
@@ -1455,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>36303.63926558645</v>
+        <v>37442.50847249234</v>
       </c>
     </row>
     <row r="6">
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>18.22908755202792</v>
+        <v>17.153474394796078</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>19.843653187188863</v>
+        <v>19.0021548189756</v>
       </c>
     </row>
     <row r="8">
@@ -1488,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>405.4896518194055</v>
+        <v>388.47941011998876</v>
       </c>
     </row>
     <row r="9">
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5084.727579367178</v>
+        <v>5466.259780561473</v>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>16682.177097661344</v>
+        <v>17933.923164571763</v>
       </c>
     </row>
     <row r="12">
@@ -1526,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>4340.909921387387</v>
+        <v>4715.493601252276</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>14241.83045074602</v>
+        <v>15470.77953166757</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>32295.96528153662</v>
+        <v>28792.19570104623</v>
       </c>
     </row>
     <row r="5">
@@ -1609,7 +1609,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>7260.421821327191</v>
+        <v>6472.74308507223</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1647,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>5601297.060024859</v>
+        <v>4993615.7574497275</v>
       </c>
     </row>
     <row r="10">
@@ -1658,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>7615.641979152736</v>
+        <v>6789.425624575597</v>
       </c>
     </row>
     <row r="11">
@@ -1685,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>99.42903371506617</v>
+        <v>105.9992841818302</v>
       </c>
     </row>
     <row r="14">
@@ -1707,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>193.27457957572253</v>
+        <v>206.04612475949716</v>
       </c>
     </row>
     <row r="16">
@@ -1734,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>148.45136918442677</v>
+        <v>158.2612138321287</v>
       </c>
     </row>
     <row r="19">
@@ -1756,7 +1756,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>288.5663763844148</v>
+        <v>307.6351888745482</v>
       </c>
     </row>
     <row r="21">
@@ -1783,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4793266618596517</v>
+        <v>0.5110013012272766</v>
       </c>
     </row>
     <row r="24">
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>14.640809521484622</v>
+        <v>16.09006736932419</v>
       </c>
     </row>
     <row r="26">
@@ -1876,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>112.42704813114949</v>
+        <v>103.17107723398954</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>413.28011087500295</v>
+        <v>414.4806149223457</v>
       </c>
     </row>
     <row r="3">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>751.5446451427167</v>
+        <v>752.7451491900595</v>
       </c>
     </row>
     <row r="6">
@@ -1959,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1252.5744085711945</v>
+        <v>1254.5752486500992</v>
       </c>
     </row>
     <row r="7">
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1355.9058755741567</v>
+        <v>1359.8445371468033</v>
       </c>
     </row>
     <row r="9">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2465.6976546677056</v>
+        <v>2469.6363162403527</v>
       </c>
     </row>
     <row r="12">
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>4109.496091112843</v>
+        <v>4116.060527067254</v>
       </c>
     </row>
     <row r="13">
@@ -2171,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>11.376425228382868</v>
+        <v>11.400324586272152</v>
       </c>
     </row>
   </sheetData>
@@ -2221,7 +2221,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>304.3866458274048</v>
+        <v>289.9188571389476</v>
       </c>
     </row>
     <row r="4">
@@ -2232,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>34400.0</v>
+        <v>34211.33700848327</v>
       </c>
     </row>
     <row r="5">
@@ -2243,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>29976.919269702314</v>
+        <v>30026.134665842867</v>
       </c>
     </row>
     <row r="6">
@@ -2254,7 +2254,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>4653.343031902304</v>
+        <v>4221.337008483282</v>
       </c>
     </row>
     <row r="7">
@@ -2265,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>4420.675880307188</v>
+        <v>4010.270158059118</v>
       </c>
     </row>
     <row r="8">
@@ -2298,7 +2298,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="11">
@@ -2314,7 +2314,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5861616590991254</v>
+        <v>0.5731940035902563</v>
       </c>
     </row>
     <row r="13">
@@ -2325,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>82.92708247655372</v>
+        <v>77.18661378427282</v>
       </c>
     </row>
     <row r="14">
@@ -2336,7 +2336,7 @@
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>999.8438070854237</v>
+        <v>1006.1866391783632</v>
       </c>
     </row>
     <row r="15">
@@ -2347,7 +2347,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>74.35773031855138</v>
+        <v>74.3577303185516</v>
       </c>
     </row>
     <row r="16">
@@ -2358,7 +2358,7 @@
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>15.322619756596737</v>
+        <v>14.732821056914759</v>
       </c>
     </row>
     <row r="17">
@@ -2380,7 +2380,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>22.989883486825192</v>
+        <v>22.98988348682542</v>
       </c>
     </row>
     <row r="19">
@@ -2413,7 +2413,7 @@
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3838820806164449</v>
+        <v>0.3848377116858046</v>
       </c>
     </row>
     <row r="22">
@@ -2429,7 +2429,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>0.48923320857175057</v>
+        <v>0.480365373459088</v>
       </c>
     </row>
     <row r="24">
@@ -2440,7 +2440,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>20.76363773415857</v>
+        <v>19.354350075356045</v>
       </c>
     </row>
     <row r="25">
@@ -2451,7 +2451,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>206.23330665068983</v>
+        <v>194.26900886707864</v>
       </c>
     </row>
     <row r="26">
@@ -2473,7 +2473,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>4.4539835168929045</v>
+        <v>4.282506816161444</v>
       </c>
     </row>
     <row r="28">
@@ -2484,7 +2484,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>19.966102666842446</v>
+        <v>19.05172227572892</v>
       </c>
     </row>
     <row r="29">
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>5.666666666666657</v>
+        <v>5.666666666666643</v>
       </c>
     </row>
     <row r="30">
@@ -2528,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.18038205024933518</v>
+        <v>0.18090373116362457</v>
       </c>
     </row>
     <row r="33">
@@ -2544,7 +2544,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="n">
-        <v>15.779613941212103</v>
+        <v>15.493811876128474</v>
       </c>
     </row>
     <row r="35">
@@ -2555,7 +2555,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>428.3701101797584</v>
+        <v>399.8924014943442</v>
       </c>
     </row>
     <row r="36">
@@ -2566,7 +2566,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>2996.8344742982963</v>
+        <v>2691.2518722044506</v>
       </c>
     </row>
     <row r="37">
@@ -2577,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="n">
-        <v>106.77133718461096</v>
+        <v>97.9250882097474</v>
       </c>
     </row>
     <row r="38">
@@ -2588,7 +2588,7 @@
         <v>34</v>
       </c>
       <c r="C38" t="n">
-        <v>104.36321572615748</v>
+        <v>100.33976186140649</v>
       </c>
     </row>
     <row r="39">
@@ -2599,7 +2599,7 @@
         <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>355.12717640707297</v>
+        <v>324.8596471800063</v>
       </c>
     </row>
     <row r="40">
@@ -2610,7 +2610,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>42.31047929080455</v>
+        <v>38.24165297081595</v>
       </c>
     </row>
     <row r="41">
@@ -2621,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="n">
-        <v>362.90996422276316</v>
+        <v>334.71273773351845</v>
       </c>
     </row>
     <row r="42">
@@ -2632,7 +2632,7 @@
         <v>34</v>
       </c>
       <c r="C42" t="n">
-        <v>7.731496623352086</v>
+        <v>7.073789641116264</v>
       </c>
     </row>
     <row r="43">
@@ -2643,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4780124331605293</v>
+        <v>0.47939488758333937</v>
       </c>
     </row>
     <row r="44">
@@ -2659,7 +2659,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="n">
-        <v>34381.8155360683</v>
+        <v>34020.911012025885</v>
       </c>
     </row>
     <row r="46">
@@ -2670,7 +2670,7 @@
         <v>34</v>
       </c>
       <c r="C46" t="n">
-        <v>33953.445425888545</v>
+        <v>33621.01861053154</v>
       </c>
     </row>
     <row r="47">
@@ -2681,7 +2681,7 @@
         <v>34</v>
       </c>
       <c r="C47" t="n">
-        <v>30956.61095159025</v>
+        <v>30929.766738327082</v>
       </c>
     </row>
     <row r="48">
@@ -2692,7 +2692,7 @@
         <v>34</v>
       </c>
       <c r="C48" t="n">
-        <v>30849.839614405635</v>
+        <v>30831.84165011733</v>
       </c>
     </row>
     <row r="49">
@@ -2703,7 +2703,7 @@
         <v>34</v>
       </c>
       <c r="C49" t="n">
-        <v>30745.47639867948</v>
+        <v>30731.501888255923</v>
       </c>
     </row>
     <row r="50">
@@ -2714,7 +2714,7 @@
         <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>30390.3492222724</v>
+        <v>30406.64224107591</v>
       </c>
     </row>
     <row r="51">
@@ -2725,7 +2725,7 @@
         <v>34</v>
       </c>
       <c r="C51" t="n">
-        <v>30348.038742981596</v>
+        <v>30368.40058810509</v>
       </c>
     </row>
     <row r="52">
@@ -2736,7 +2736,7 @@
         <v>34</v>
       </c>
       <c r="C52" t="n">
-        <v>29985.12877875883</v>
+        <v>30033.68785037157</v>
       </c>
     </row>
     <row r="53">
@@ -2747,7 +2747,7 @@
         <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>29977.397282135476</v>
+        <v>30026.614060730455</v>
       </c>
     </row>
     <row r="54">
@@ -2758,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>29976.919269702314</v>
+        <v>30026.134665842867</v>
       </c>
     </row>
     <row r="55">
@@ -2790,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>127.63975384670692</v>
+        <v>127.37464315656823</v>
       </c>
     </row>
     <row r="59">
@@ -2812,7 +2812,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1929845134801755</v>
+        <v>0.1925836802286773</v>
       </c>
     </row>
     <row r="61">
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>1.956610751725356</v>
+        <v>1.956619139929308</v>
       </c>
     </row>
     <row r="63">
@@ -2845,7 +2845,7 @@
         <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>0.10033168369298776</v>
+        <v>0.09733087266555462</v>
       </c>
     </row>
     <row r="64">
@@ -2856,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.15007466053933988</v>
+        <v>0.14707383291782467</v>
       </c>
     </row>
     <row r="65">
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>13.574974024832308</v>
+        <v>13.993504452385451</v>
       </c>
     </row>
     <row r="66">
@@ -2878,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>13.037582391948566</v>
+        <v>13.303652329660437</v>
       </c>
     </row>
     <row r="67">
@@ -2889,7 +2889,7 @@
         <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>24808.056185849</v>
+        <v>24808.05587484244</v>
       </c>
     </row>
     <row r="68">
@@ -2900,7 +2900,7 @@
         <v>127</v>
       </c>
       <c r="C68" t="n">
-        <v>18731.78477442938</v>
+        <v>18744.7802041716</v>
       </c>
     </row>
     <row r="69">
@@ -2922,7 +2922,7 @@
         <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>7085.0171116842075</v>
+        <v>6914.5351594318745</v>
       </c>
     </row>
     <row r="71">
@@ -2987,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7245931859441775</v>
+        <v>0.7169871606421329</v>
       </c>
     </row>
     <row r="78">
@@ -2998,7 +2998,7 @@
         <v>10</v>
       </c>
       <c r="C78" t="n">
-        <v>1.5951328436726298</v>
+        <v>1.5795154321068168</v>
       </c>
     </row>
     <row r="79">
@@ -3009,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.043325439559078055</v>
+        <v>0.039947956630210155</v>
       </c>
     </row>
     <row r="80">
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1137871246252496</v>
+        <v>0.10905137889424031</v>
       </c>
     </row>
     <row r="81">
@@ -3031,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>16.724427803118555</v>
+        <v>17.948030916302738</v>
       </c>
     </row>
     <row r="82">
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>14.018570632890976</v>
+        <v>14.484139935898058</v>
       </c>
     </row>
     <row r="83">
@@ -3075,7 +3075,7 @@
         <v>127</v>
       </c>
       <c r="C85" t="n">
-        <v>4532.76277617519</v>
+        <v>4178.9303147974715</v>
       </c>
     </row>
     <row r="86">
@@ -3086,7 +3086,7 @@
         <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>5445.289746639187</v>
+        <v>5215.486201024997</v>
       </c>
     </row>
     <row r="87">
@@ -3107,7 +3107,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>280.6959611453744</v>
+        <v>302.64382149159337</v>
       </c>
     </row>
     <row r="90">
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>304.1261329318528</v>
+        <v>321.5123221135492</v>
       </c>
     </row>
     <row r="91">
@@ -3129,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4662537482287689</v>
+        <v>0.5027105326807771</v>
       </c>
     </row>
     <row r="92">
@@ -3140,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5051727457537518</v>
+        <v>0.5340523058311485</v>
       </c>
     </row>
     <row r="93">
@@ -3151,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7308558569061773</v>
+        <v>0.6225402718001616</v>
       </c>
     </row>
     <row r="94">
@@ -3162,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5369706985509419</v>
+        <v>0.48347824257408284</v>
       </c>
     </row>
     <row r="95">
@@ -3173,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>0.04363691169468527</v>
+        <v>0.035530691185912434</v>
       </c>
     </row>
     <row r="96">
@@ -3184,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0.035060457416065526</v>
+        <v>0.030167889751407512</v>
       </c>
     </row>
     <row r="97">
@@ -3195,7 +3195,7 @@
         <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>16.748569697593688</v>
+        <v>17.521197900225275</v>
       </c>
     </row>
     <row r="98">
@@ -3206,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>15.315564545512443</v>
+        <v>16.026253296405184</v>
       </c>
     </row>
     <row r="99">
@@ -3217,7 +3217,7 @@
         <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>4469.309035169508</v>
+        <v>4230.399006989328</v>
       </c>
     </row>
     <row r="100">
@@ -3228,7 +3228,7 @@
         <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>4215.40308058155</v>
+        <v>4053.7244809702725</v>
       </c>
     </row>
     <row r="101">
@@ -3239,7 +3239,7 @@
         <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>4469.309035169508</v>
+        <v>4230.399006989328</v>
       </c>
     </row>
     <row r="102">
@@ -3250,7 +3250,7 @@
         <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>4215.40308058155</v>
+        <v>4053.7244809702725</v>
       </c>
     </row>
     <row r="103">
@@ -3315,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="C109" t="n">
-        <v>0.48611469567488724</v>
+        <v>0.485693158363149</v>
       </c>
     </row>
     <row r="110">
@@ -3326,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4829317955802495</v>
+        <v>0.4827478073268042</v>
       </c>
     </row>
     <row r="111">
@@ -3337,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>0.03325593373112218</v>
+        <v>0.030241856552008946</v>
       </c>
     </row>
     <row r="112">
@@ -3348,7 +3348,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03314964123106573</v>
+        <v>0.030143496969273573</v>
       </c>
     </row>
     <row r="113">
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>14.617382257409373</v>
+        <v>16.06029568746449</v>
       </c>
     </row>
     <row r="114">
@@ -3370,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>14.568235964124904</v>
+        <v>16.01499015920043</v>
       </c>
     </row>
     <row r="115">
@@ -3381,7 +3381,7 @@
         <v>127</v>
       </c>
       <c r="C115" t="n">
-        <v>1588.2952360198192</v>
+        <v>1167.884689190229</v>
       </c>
     </row>
     <row r="116">
@@ -3392,7 +3392,7 @@
         <v>127</v>
       </c>
       <c r="C116" t="n">
-        <v>599.0187222067261</v>
+        <v>171.71808867873392</v>
       </c>
     </row>
     <row r="117">
@@ -3403,7 +3403,7 @@
         <v>127</v>
       </c>
       <c r="C117" t="n">
-        <v>4664.18802912025</v>
+        <v>4241.45977823646</v>
       </c>
     </row>
     <row r="118">
@@ -3414,7 +3414,7 @@
         <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>4649.280367517453</v>
+        <v>4227.664718622354</v>
       </c>
     </row>
     <row r="119">
@@ -3479,7 +3479,7 @@
         <v>10</v>
       </c>
       <c r="C125" t="n">
-        <v>0.650157181887788</v>
+        <v>0.6497778766503003</v>
       </c>
     </row>
     <row r="126">
@@ -3490,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8394276230549023</v>
+        <v>0.8390460843232826</v>
       </c>
     </row>
     <row r="127">
@@ -3501,7 +3501,7 @@
         <v>10</v>
       </c>
       <c r="C127" t="n">
-        <v>0.039751853683178726</v>
+        <v>0.03673508159210963</v>
       </c>
     </row>
     <row r="128">
@@ -3512,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>0.049593145322914284</v>
+        <v>0.04657111269714038</v>
       </c>
     </row>
     <row r="129">
@@ -3523,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="C129" t="n">
-        <v>16.355392809339772</v>
+        <v>17.688211063885777</v>
       </c>
     </row>
     <row r="130">
@@ -3534,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="C130" t="n">
-        <v>16.926283210898678</v>
+        <v>18.016449161945896</v>
       </c>
     </row>
     <row r="131">
@@ -3545,7 +3545,7 @@
         <v>127</v>
       </c>
       <c r="C131" t="n">
-        <v>11312.304508650495</v>
+        <v>11312.304508650497</v>
       </c>
     </row>
     <row r="132">
@@ -3567,7 +3567,7 @@
         <v>127</v>
       </c>
       <c r="C133" t="n">
-        <v>4116.024053193855</v>
+        <v>3813.8556952725594</v>
       </c>
     </row>
     <row r="134">
@@ -3578,7 +3578,7 @@
         <v>127</v>
       </c>
       <c r="C134" t="n">
-        <v>4021.194633401842</v>
+        <v>3786.9625183415264</v>
       </c>
     </row>
     <row r="135">
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
       <c r="C137" t="n">
-        <v>300.2583546542406</v>
+        <v>314.8067106014707</v>
       </c>
     </row>
     <row r="138">
@@ -3610,7 +3610,7 @@
         <v>19</v>
       </c>
       <c r="C138" t="n">
-        <v>300.2583546542406</v>
+        <v>314.8067106014707</v>
       </c>
     </row>
     <row r="139">
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>0.47037028636541045</v>
+        <v>0.49316104055083415</v>
       </c>
     </row>
     <row r="140">
@@ -3632,7 +3632,7 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.47037028636541045</v>
+        <v>0.49316104055083415</v>
       </c>
     </row>
     <row r="141">
@@ -3643,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0.35128541262540147</v>
+        <v>0.319422064467868</v>
       </c>
     </row>
     <row r="142">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3440393844347381</v>
+        <v>0.31335085415358227</v>
       </c>
     </row>
     <row r="143">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>0.029314418964833618</v>
+        <v>0.025572401173607876</v>
       </c>
     </row>
     <row r="144">
@@ -3676,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>0.02913125706290147</v>
+        <v>0.02543536307884416</v>
       </c>
     </row>
     <row r="145">
@@ -3687,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="C145" t="n">
-        <v>11.983366037266954</v>
+        <v>12.490890562030176</v>
       </c>
     </row>
     <row r="146">
@@ -3698,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>11.8099738604439</v>
+        <v>12.31949601750374</v>
       </c>
     </row>
     <row r="147">
@@ -3709,7 +3709,7 @@
         <v>127</v>
       </c>
       <c r="C147" t="n">
-        <v>5656.355032238125</v>
+        <v>5424.061953771979</v>
       </c>
     </row>
     <row r="148">
@@ -3720,7 +3720,7 @@
         <v>127</v>
       </c>
       <c r="C148" t="n">
-        <v>5639.837655112647</v>
+        <v>5412.22841680677</v>
       </c>
     </row>
     <row r="149">
@@ -3731,7 +3731,7 @@
         <v>127</v>
       </c>
       <c r="C149" t="n">
-        <v>5656.355032238125</v>
+        <v>5424.061953771979</v>
       </c>
     </row>
     <row r="150">
@@ -3742,7 +3742,7 @@
         <v>127</v>
       </c>
       <c r="C150" t="n">
-        <v>5639.837655112647</v>
+        <v>5412.22841680677</v>
       </c>
     </row>
     <row r="151">
@@ -3807,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4769082197670818</v>
+        <v>0.4771639020738359</v>
       </c>
     </row>
     <row r="158">
@@ -3818,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>0.47574700571633766</v>
+        <v>0.47609898814094254</v>
       </c>
     </row>
     <row r="159">
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="C159" t="n">
-        <v>0.03294848476575919</v>
+        <v>0.029957023240356893</v>
       </c>
     </row>
     <row r="160">
@@ -3840,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.032909706186198304</v>
+        <v>0.02992146058965891</v>
       </c>
     </row>
     <row r="161">
@@ -3851,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>14.474359690819396</v>
+        <v>15.928281600123071</v>
       </c>
     </row>
     <row r="162">
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="C162" t="n">
-        <v>14.45613045053124</v>
+        <v>15.911622586548669</v>
       </c>
     </row>
     <row r="163">
@@ -3873,7 +3873,7 @@
         <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>747.0685269187511</v>
+        <v>325.9431160743859</v>
       </c>
     </row>
     <row r="164">
@@ -3884,7 +3884,7 @@
         <v>127</v>
       </c>
       <c r="C164" t="n">
-        <v>316.83857126667385</v>
+        <v>-114.61759012997838</v>
       </c>
     </row>
     <row r="165">
@@ -3895,7 +3895,7 @@
         <v>127</v>
       </c>
       <c r="C165" t="n">
-        <v>4621.067911206691</v>
+        <v>4201.511535217834</v>
       </c>
     </row>
     <row r="166">
@@ -3906,7 +3906,7 @@
         <v>127</v>
       </c>
       <c r="C166" t="n">
-        <v>4615.629164905459</v>
+        <v>4196.5238271290955</v>
       </c>
     </row>
     <row r="167">
@@ -3971,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6191431732182663</v>
+        <v>0.6195585838320826</v>
       </c>
     </row>
     <row r="174">
@@ -3982,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6135843905642713</v>
+        <v>0.6144316415710139</v>
       </c>
     </row>
     <row r="175">
@@ -3993,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>0.03838047853089186</v>
+        <v>0.03539884712683359</v>
       </c>
     </row>
     <row r="176">
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03813657830716514</v>
+        <v>0.03517214437134786</v>
       </c>
     </row>
     <row r="177">
@@ -4015,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="C177" t="n">
-        <v>16.13172104459113</v>
+        <v>17.5022249061449</v>
       </c>
     </row>
     <row r="178">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>16.089130640464155</v>
+        <v>17.46926872253902</v>
       </c>
     </row>
     <row r="179">
@@ -4037,7 +4037,7 @@
         <v>127</v>
       </c>
       <c r="C179" t="n">
-        <v>4147.478905479429</v>
+        <v>3825.2772596012173</v>
       </c>
     </row>
     <row r="180">
@@ -4048,7 +4048,7 @@
         <v>127</v>
       </c>
       <c r="C180" t="n">
-        <v>4121.122510987522</v>
+        <v>3800.779261343214</v>
       </c>
     </row>
     <row r="181">
@@ -4059,7 +4059,7 @@
         <v>127</v>
       </c>
       <c r="C181" t="n">
-        <v>4147.478905479429</v>
+        <v>3825.2772596012173</v>
       </c>
     </row>
     <row r="182">
@@ -4070,7 +4070,7 @@
         <v>127</v>
       </c>
       <c r="C182" t="n">
-        <v>4121.122510987522</v>
+        <v>3800.779261343214</v>
       </c>
     </row>
     <row r="183">
@@ -4135,7 +4135,7 @@
         <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>0.47031558955313196</v>
+        <v>0.471077236720373</v>
       </c>
     </row>
     <row r="190">
@@ -4146,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0.4701005009252002</v>
+        <v>0.4708776296798417</v>
       </c>
     </row>
     <row r="191">
@@ -4157,7 +4157,7 @@
         <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0.032728324808942146</v>
+        <v>0.029753759908744157</v>
       </c>
     </row>
     <row r="192">
@@ -4168,7 +4168,7 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0.03272114195452736</v>
+        <v>0.02974709405975861</v>
       </c>
     </row>
     <row r="193">
@@ -4179,7 +4179,7 @@
         <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>14.370292164316051</v>
+        <v>15.832527995291475</v>
       </c>
     </row>
     <row r="194">
@@ -4190,7 +4190,7 @@
         <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>14.366873307126623</v>
+        <v>15.829365676321217</v>
       </c>
     </row>
     <row r="195">
@@ -4201,7 +4201,7 @@
         <v>127</v>
       </c>
       <c r="C195" t="n">
-        <v>232.55856021243773</v>
+        <v>-190.95053633651605</v>
       </c>
     </row>
     <row r="196">
@@ -4212,7 +4212,7 @@
         <v>127</v>
       </c>
       <c r="C196" t="n">
-        <v>122.87428753589275</v>
+        <v>-297.8532522607652</v>
       </c>
     </row>
     <row r="197">
@@ -4223,7 +4223,7 @@
         <v>127</v>
       </c>
       <c r="C197" t="n">
-        <v>4590.19019045526</v>
+        <v>4173.003588162961</v>
       </c>
     </row>
     <row r="198">
@@ -4234,7 +4234,7 @@
         <v>127</v>
       </c>
       <c r="C198" t="n">
-        <v>4589.182785766304</v>
+        <v>4172.06869415897</v>
       </c>
     </row>
     <row r="199">
@@ -4255,7 +4255,7 @@
         <v>19</v>
       </c>
       <c r="C201" t="n">
-        <v>117.32690628600095</v>
+        <v>117.42318022433938</v>
       </c>
     </row>
     <row r="202">
@@ -4277,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1774011873556455</v>
+        <v>0.1775467559341863</v>
       </c>
     </row>
     <row r="204">
@@ -4321,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="C207" t="n">
-        <v>0.20976522860872804</v>
+        <v>0.20676522860872804</v>
       </c>
     </row>
     <row r="208">
@@ -4332,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.21011583526563993</v>
+        <v>0.20711583526563992</v>
       </c>
     </row>
     <row r="209">
@@ -4343,7 +4343,7 @@
         <v>10</v>
       </c>
       <c r="C209" t="n">
-        <v>7.909942819452235</v>
+        <v>8.024709836218202</v>
       </c>
     </row>
     <row r="210">
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="C210" t="n">
-        <v>7.90992262862439</v>
+        <v>8.024495074789302</v>
       </c>
     </row>
     <row r="211">
@@ -4365,7 +4365,7 @@
         <v>127</v>
       </c>
       <c r="C211" t="n">
-        <v>-1125.9001751212784</v>
+        <v>-1127.4080183971253</v>
       </c>
     </row>
     <row r="212">
@@ -4387,7 +4387,7 @@
         <v>127</v>
       </c>
       <c r="C213" t="n">
-        <v>5540.148752142306</v>
+        <v>5455.50316248215</v>
       </c>
     </row>
     <row r="214">
@@ -4469,7 +4469,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1152.054075364835</v>
+        <v>1286.316467193462</v>
       </c>
     </row>
     <row r="7">
@@ -4534,7 +4534,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1152.051937875228</v>
+        <v>1286.3141966853855</v>
       </c>
     </row>
     <row r="14">
@@ -4599,7 +4599,7 @@
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>2673.735916236211</v>
+        <v>2825.0194814312604</v>
       </c>
     </row>
     <row r="21">
@@ -4659,7 +4659,7 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>2931.0218925599747</v>
+        <v>3233.982551948551</v>
       </c>
     </row>
     <row r="27">
